--- a/saturn.xlsx
+++ b/saturn.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="1561">
   <si>
-    <t xml:space="preserve">Label </t>
+    <t xml:space="preserve">Label</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -34,37 +34,37 @@
     <t xml:space="preserve">Image</t>
   </si>
   <si>
-    <t xml:space="preserve">Abs. Magn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter (km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass (×1015 kg) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-major axis (km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orbital period (d) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inclination (°) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eccentricity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Position </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discovery year </t>
+    <t xml:space="preserve">Abs. magn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter (km)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass (x1015 kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-major axis (km)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orbital period (d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inclination (°)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eccentricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discovery year</t>
   </si>
   <si>
     <t xml:space="preserve">Year announced</t>
   </si>
   <si>
-    <t xml:space="preserve">Discoverer </t>
+    <t xml:space="preserve">Discoverer</t>
   </si>
   <si>
     <t xml:space="preserve">Group</t>
@@ -5001,7 +5001,7 @@
   <dimension ref="A1:P276"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
